--- a/arxiv_web3_excel.xlsx
+++ b/arxiv_web3_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O154"/>
+  <dimension ref="A1:O166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10590,6 +10590,787 @@
         </is>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2508.20686v1</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2025-08-28T11:44:35Z</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2025-08-28T11:44:35Z</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Efficient Forkless Blockchain Databases</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Operating nodes in an L1 blockchain remains costly despite recent advances in blockchain technology. One of the most resource-intensive components of a node is the blockchain database, also known as StateDB, that manages balances, nonce, code, and the persistent storage of accounts/smart contracts. Although the blockchain industry has transitioned from forking to forkless chains due to improved consensus protocols, forkless blockchains still rely on legacy forking databases that are suboptimal for their purposes. In this paper, we propose a forkless blockchain database, showing a 100x improvement in storage and a 10x improvement in throughput compared to the geth-based Fantom Blockchain client.</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Herbert Jordan, Kamil Jezek, Pavle Subotic, Bernhard Scholz</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>cs.DB</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>cs.DB</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2508.20686v1</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2508.20686v1</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>A new forkless blockchain database significantly reduces storage requirements. 
+It achieves a 100x storage improvement and 10x throughput increase. 
+This design surpasses existing databases like those used in the Fantom Blockchain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.02421v1</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2025-09-02T15:24:07Z</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2025-09-02T15:24:07Z</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Near-Optimal Stability for Distributed Transaction Processing in   Blockchain Sharding</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>In blockchain sharding, $n$ processing nodes are divided into $s$ shards, and each shard processes transactions in parallel. A key challenge in such a system is to ensure system stability for any ``tractable'' pattern of generated transactions; this is modeled by an adversary generating transactions with a certain rate of at most $\rho$ and burstiness $b$. This model captures worst-case scenarios and even some attacks on transactions' processing, e.g., DoS. A stable system ensures bounded transaction queue sizes and bounded transaction latency. It is known that the absolute upper bound on the maximum injection rate for which any scheduler could guarantee bounded queues and latency of transactions is $\max\left\{ \frac{2}{k+1}, \frac{2}{ \left\lfloor\sqrt{2s}\right\rfloor}\right\}$, where $k$ is the maximum number of shards that each transaction accesses. Here, we first provide a single leader scheduler that guarantees stability under injection rate $\rho \leq \max\left\{ \frac{1}{16k}, \frac{1}{16\lceil \sqrt{s} \rceil}\right\}$. Moreover, we also give a distributed scheduler with multiple leaders that guarantees stability under injection rate $\rho \leq \frac{1}{16c_1 \log D \log s}\max\left\{ \frac{1}{k}, \frac{1}{\lceil \sqrt{s} \rceil} \right\}$, where $c_1$ is some positive constant and $D$ is the diameter of shard graph $G_s$. This bound is within a poly-log factor from the optimal injection rate, and significantly improves the best previous known result for the distributed setting by Adhikari et al., SPAA 2024.</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Ramesh Adhikari, Costas Busch, Dariusz R. Kowalski</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>13 pages, 1 figure, accepted for publication in Proceedings of the
+  27th International Symposium on Stabilization, Safety, and Security of
+  Distributed Systems (SSS 2025)</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>cs.DC</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>cs.DC</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.02421v1</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.02421v1</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>Blockchain sharding stability depends on managing transaction injection rates within parallel shards.
+The research presents a single leader scheduler achieving stability under a specific rate and a distributed scheduler with improved bounds.
+These schedulers offer enhanced stability guarantees compared to previous results, particularly in the distributed setting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.03367v1</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2025-08-28T18:03:00Z</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2025-08-28T18:03:00Z</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Tuning Block Size for Workload Optimization in Consortium Blockchain   Networks</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Determining the optimal block size is crucial for achieving high throughput in blockchain systems. Many studies have focused on tuning various components, such as databases, network bandwidth, and consensus mechanisms. However, the impact of block size on system performance remains a topic of debate, often resulting in divergent views and even leading to new forks in blockchain networks. This research proposes a mathematical model to maximize performance by determining the ideal block size for Hyperledger Fabric, a prominent consortium blockchain. By leveraging machine learning and solving the model with a genetic algorithm, the proposed approach assesses how factors such as block size, transaction size, and network capacity influence the block processing time. The integration of an optimization solver enables precise adjustments to block size configuration before deployment, ensuring improved performance from the outset. This systematic approach aims to balance block processing efficiency, network latency, and system throughput, offering a robust solution to improve blockchain performance across diverse business contexts.</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Narges Dadkhah, Somayeh Mohammadi, Gerhard Wunder</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>10.1109/ICBC64466.2025.11114510</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>cs.CR</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>cs.CR</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.03367v1</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.03367v1</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>A mathematical model, utilizing machine learning and genetic algorithms, optimizes Hyperledger Fabric’s block size. 
+The model analyzes the interplay between block size, transaction size, and network capacity.
+This systematic approach maximizes blockchain performance by precisely configuring block size for improved throughput and efficiency.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.05708v1</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2025-09-06T13:00:56Z</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2025-09-06T13:00:56Z</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Larger-scale Nakamoto-style Blockchains Offer Better Security</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Traditional security models for Nakamoto-style blockchains overestimate adversarial coordination by assuming instantaneous synchronization among malicious nodes, neglecting the critical impact of internal communication delays on security. This paper introduces a dual-delay framework to revisit security analysis, addressing this oversight through two key innovations. First, the static delay model quantifies how adversarial communication delays (\(\Delta_a\)) constrain the effective growth rate of private chains, derived via an M/D/1 queuing model as \(\lambda_{eff} = \lambda_a / (1 + \lambda_a \Delta_a)\). This model reveals that the security threshold (\(\beta^*\)), the maximum adversarial power the system tolerates, increases with \(\Delta_a\), even exceeding the classic 51\% boundary when \(\Delta_a \textgreater \Delta\) (honest nodes' delay), breaking the long-standing 50\% assumption. Second, the dynamic delay model integrates probabilistic corruption and scale-dependent delays to characterize the total adversarial delay window (\(\Delta_{total} = \Delta(n) e^{-k\beta} + c \log(1 + \beta n)\)), where \(\Delta(n) \in \Theta(\log n)\) captures honest nodes' logarithmic delay growth. Asymptotic analysis shows adversarial power decays linearly with network scale, ensuring the probability of \(\beta \leq \beta^*\) approaches 1 as \(n \to \infty\). By exposing the interplay between network scale, communication delays, and power dilution, we provide a theoretical foundation for optimizing consensus protocols and assessing robustness in large-scale Nakamoto-style blockchains.</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Junjie Hu, Na Ruan</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>22 pages, 2 figures</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>cs.CR</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>cs.CR</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.05708v1</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.05708v1</t>
+        </is>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>The study introduces a dual-delay framework to account for communication delays in Nakamoto blockchains.
+It demonstrates that larger delays increase the security threshold, potentially exceeding 51% under certain conditions.
+Asymptotic analysis reveals a linear decay of adversarial power with network scale, offering insights for protocol optimization.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.06616v1</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2025-09-08T12:34:10Z</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2025-09-08T12:34:10Z</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Mangrove: Fast and Parallelizable State Replication for Blockchains</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Mangrove is a novel scaling approach to building blockchains with parallel smart contract support. Unlike in monolithic blockchains, where a single consensus mechanism determines a strict total order over all transactions, Mangrove uses separate consensus instances per smart contract, without a global order. To allow multiple instances to run in parallel while ensuring that no conflicting transactions are committed, we propose a mechanism called Parallel Optimistic Agreement. Additionally, for simple transactions, we leverage a lightweight Byzantine Reliable Broadcast primitive to reduce latency. Mangrove is optimized for performance under optimistic conditions, where there is no misbehavior and the network is synchronous. Under these conditions, our protocol can achieve a latency of 2 communication steps between creating and executing a transaction.</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Anton Paramonov, Yann Vonlanthen, Quentin Kniep, Jakub Sliwinski, Roger Wattenhofer</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>cs.DC</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>cs.DC</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.06616v1</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.06616v1</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>Mangrove utilizes separate consensus instances for smart contracts, enabling parallel transaction processing.
+It employs Parallel Optimistic Agreement to prevent conflicts across these instances.
+Latency is minimized with Byzantine Reliable Broadcast for simple transactions under synchronous conditions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.07131v1</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2025-09-08T18:32:15Z</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2025-09-08T18:32:15Z</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>SoK: Security and Privacy of AI Agents for Blockchain</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Blockchain and smart contracts have garnered significant interest in recent years as the foundation of a decentralized, trustless digital ecosystem, thereby eliminating the need for traditional centralized authorities. Despite their central role in powering Web3, their complexity still presents significant barriers for non-expert users. To bridge this gap, Artificial Intelligence (AI)-based agents have emerged as valuable tools for interacting with blockchain environments, supporting a range of tasks, from analyzing on-chain data and optimizing transaction strategies to detecting vulnerabilities within smart contracts. While interest in applying AI to blockchain is growing, the literature still lacks a comprehensive survey that focuses specifically on the intersection with AI agents. Most of the related work only provides general considerations, without focusing on any specific domain. This paper addresses this gap by presenting the first Systematization of Knowledge dedicated to AI-driven systems for blockchain, with a special focus on their security and privacy dimensions, shedding light on their applications, limitations, and future research directions.</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Nicolò Romandini, Carlo Mazzocca, Kai Otsuki, Rebecca Montanari</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>This work has been accepted to the 7th International Conference on
+  Blockchain Computing and Applications (BCCA 2025)</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>cs.CR</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>cs.CR, cs.AI</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.07131v1</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.07131v1</t>
+        </is>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>AI agents are increasingly used to simplify interactions with blockchain and smart contracts.
+This paper provides the first comprehensive survey of AI-driven systems for blockchain, emphasizing security and privacy.
+It analyzes applications, limitations, and future research directions within this growing field.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2508.21440v1</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2025-08-29T09:08:16Z</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2025-08-29T09:08:16Z</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Time Tells All: Deanonymization of Blockchain RPC Users with Zero   Transaction Fee (Extended Version)</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Remote Procedure Call (RPC) services have become a primary gateway for users to access public blockchains. While they offer significant convenience, RPC services also introduce critical privacy challenges that remain insufficiently examined. Existing deanonymization attacks either do not apply to blockchain RPC users or incur costs like transaction fees assuming an active network eavesdropper. In this paper, we propose a novel deanonymization attack that can link an IP address of a RPC user to this user's blockchain pseudonym. Our analysis reveals a temporal correlation between the timestamps of transaction confirmations recorded on the public ledger and those of TCP packets sent by the victim when querying transaction status. We assume a strong passive adversary with access to network infrastructure, capable of monitoring traffic at network border routers or Internet exchange points. By monitoring network traffic and analyzing public ledgers, the attacker can link the IP address of the TCP packet to the pseudonym of the transaction initiator by exploiting the temporal correlation. This deanonymization attack incurs zero transaction fee. We mathematically model and analyze the attack method, perform large-scale measurements of blockchain ledgers, and conduct real-world attacks to validate the attack. Our attack achieves a high success rate of over 95% against normal RPC users on various blockchain networks, including Ethereum, Bitcoin and Solana.</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Shan Wang, Ming Yang, Yu Liu, Yue Zhang, Shuaiqing Zhang, Zhen Ling, Jiannong Cao, Xinwen Fu</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>cs.CR</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>cs.CR</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2508.21440v1</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2508.21440v1</t>
+        </is>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>Researchers demonstrate a novel deanonymization attack linking RPC user IP addresses to blockchain pseudonyms.
+This attack leverages temporal correlations between transaction confirmations and network traffic, requiring only passive network monitoring.
+The attack successfully identifies RPC users with over 95% accuracy across multiple blockchain networks, incurring no transaction fees.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2508.21480v1</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2025-08-29T10:05:22Z</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2025-08-29T10:05:22Z</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Towards a Decentralized IoT Onboarding for Smart Homes Using Consortium   Blockchain</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>The increasing adoption of smart home devices and IoT-based security systems presents significant opportunities to enhance convenience, safety, and risk management for homeowners and service providers. However, secure onboarding-provisioning credentials and establishing trust with cloud platforms-remains a considerable challenge. Traditional onboarding methods often rely on centralized Public Key Infrastructure (PKI) models and manufacturer-controlled keys, which introduce security risks and limit the user's digital sovereignty. These limitations hinder the widespread deployment of scalable IoT solutions. This paper presents a novel onboarding framework that builds upon existing network-layer onboarding techniques and extends them to the application layer to address these challenges. By integrating consortium blockchain technology, we propose a decentralized onboarding mechanism that enhances transparency, security, and monitoring for smart home architectures. The architecture supports device registration, key revocation, access control management, and risk detection through event-driven alerts across dedicated blockchain channels and smart contracts. To evaluate the framework, we formally model the protocol using the Tamarin Prover under the Dolev-Yao adversary model. The analysis focuses on authentication, token integrity, key confidentiality, and resilience over public channels. A prototype implementation demonstrates the system's viability in smart home settings, with verification completing in 0.34 seconds, highlighting its scalability and suitability for constrained devices and diverse stakeholders. Additionally, performance evaluation shows that the blockchain-based approach effectively handles varying workloads, maintains high throughput and low latency, and supports near real-time IoT data processing.</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Narges Dadkhah, Khan Reaz, Gerhard Wunder</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>cs.CR</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>cs.CR, cs.NI</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2508.21480v1</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2508.21480v1</t>
+        </is>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>A new blockchain-based onboarding framework enhances security and trust in smart home IoT systems. 
+It utilizes a decentralized mechanism for device registration, key management, and risk detection. 
+The system demonstrates scalability and performance through prototype testing and formal protocol verification.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.00480v1</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2025-08-30T12:39:33Z</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2025-08-30T12:39:33Z</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>BPI: A Novel Efficient and Reliable Search Structure for Hybrid Storage   Blockchain</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Hybrid storage solutions have emerged as potent strategies to alleviate the data storage bottlenecks prevalent in blockchain systems. These solutions harness off-chain Storage Services Providers (SPs) in conjunction with Authenticated Data Structures (ADS) to ensure data integrity and accuracy. Despite these advancements, the reliance on centralized SPs raises concerns about query correctness. Although ADS can verify the existence of individual query results, they fall short of preventing SPs from omitting valid results.   In this paper, we delineate the fundamental distinctions between data search in blockchains and traditional database systems. Drawing upon these insights, we introduce BPI, a lightweight framework that enables efficient keyword queries and maintenance with low overhead. We propose "Articulated Search", a query pattern specifically designed for blockchain environments that enhances search efficiency while significantly reducing costs during data user updates. Furthermore, BPI employs a suite of validation models to ensure the inclusion of all valid content in search results while maintaining low overhead.   Extensive experimental evaluations demonstrate that the BPI framework achieves outstanding scalability and performance in keyword searches within blockchain, surpassing EthMB+ and state of the art search databases commonly used in mainstream hybrid storage blockchains (HSB).</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Xinkui Zhao, Rengrong Xiong, Guanjie Cheng, Xinhao Jin, Shawn Shi, Xiubo Liang, Gongsheng Yuan, Xiaoye Miao, Jianwei Yin, Shuiguang Deng</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>cs.DB</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>cs.DB</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.00480v1</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.00480v1</t>
+        </is>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>BPI addresses blockchain query correctness issues by utilizing Articulated Search and validation models. 
+It establishes key distinctions between blockchain and traditional database search. 
+Experimental results show BPI’s superior scalability and performance compared to existing hybrid storage solutions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.01168v1</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2025-09-01T06:39:50Z</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2025-09-01T06:39:50Z</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Detecting Rug Pulls in Decentralized Exchanges: Machine Learning   Evidence from the TON Blockchain</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>This paper presents a machine learning framework for the early detection of rug pull scams on decentralized exchanges (DEXs) within The Open Network (TON) blockchain. TON's unique architecture, characterized by asynchronous execution and a massive web2 user base from Telegram, presents a novel and critical environment for fraud analysis. We conduct a comprehensive study on the two largest TON DEXs, Ston.Fi and DeDust, fusing data from both platforms to train our models. A key contribution is the implementation and comparative analysis of two distinct rug pull definitions--TVL-based (a catastrophic liquidity withdrawal) and idle-based (a sudden cessation of all trading activity)--within a single, unified study. We demonstrate that Gradient Boosting models can effectively identify rug pulls within the first five minutes of trading, with the TVL-based method achieving superior AUC (up to 0.891) while the idle-based method excels at recall. Our analysis reveals that while feature sets are consistent across exchanges, their underlying distributions differ significantly, challenging straightforward data fusion and highlighting the need for robust, platform-aware models. This work provides a crucial early-warning mechanism for investors and enhances the security infrastructure of the rapidly growing TON DeFi ecosystem.</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Dmitry Yaremus, Jianghai Li, Alisa Kalacheva, Igor Vodolazov, Yury Yanovich</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>cs.DC</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>cs.DC, cs.LG</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.01168v1</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.01168v1</t>
+        </is>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>The study developed a machine learning framework to detect rug pull scams on TON DEXs. 
+It utilized TVL and idle-based definitions, alongside data fusion from Ston.Fi and DeDust, and Gradient Boosting models. 
+The model effectively identified rug pulls within five minutes, emphasizing the need for platform-specific models due to differing data distributions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.01434v1</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2025-09-01T12:44:42Z</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2025-09-01T12:44:42Z</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>LiFeChain: Lightweight Blockchain for Secure and Efficient Federated   Lifelong Learning in IoT</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>The expansion of Internet of Things (IoT) devices constantly generates heterogeneous data streams, driving demand for continuous, decentralized intelligence. Federated Lifelong Learning (FLL) provides an ideal solution by incorporating federated and lifelong learning to overcome catastrophic forgetting. The extended lifecycle of FLL in IoT systems increases their vulnerability to persistent attacks, and these risks may be obscured by performance degradation caused by spatial-temporal data heterogeneity. Moreover, this problem is exacerbated by the standard single-server architecture, as its single point of failure makes it difficult to maintain a reliable audit trail for long-term threats. Blockchain provides a tamper-proof foundation for trustworthy FLL systems. Nevertheless, directly applying blockchain to FLL significantly increases computational and retrieval costs with the expansion of the knowledge base, slowing down the training on IoT devices. To address these challenges, we propose LiFeChain, a lightweight blockchain for secure and efficient federated lifelong learning by providing a tamper-resistant ledger with minimal on-chain disclosure and bidirectional verification. To the best of our knowledge, LiFeChain is the first blockchain tailored for FLL. LiFeChain incorporates two complementary mechanisms: the proof-of-model-correlation (PoMC) consensus on the server, which couples learning and unlearning mechanisms to mitigate negative transfer, and segmented zero-knowledge arbitration (Seg-ZA) on the client, which detects and arbitrates abnormal committee behavior without compromising privacy. LiFeChain is designed as a plug-and-play component that can be seamlessly integrated into existing FLL algorithms. Experimental results demonstrate that LiFeChain not only enhances model performance against two long-term attacks but also sustains high efficiency and scalability.</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Handi Chen, Jing Deng, Xiuzhe Wu, Zhihan Jiang, Xinchen Zhang, Xianhao Chen, Edith C. H. Ngai</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>cs.CR</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>cs.CR, cs.DC</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.01434v1</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.01434v1</t>
+        </is>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>LiFeChain is a blockchain designed for secure and efficient federated lifelong learning in IoT systems. 
+It utilizes PoMC and Seg-ZA mechanisms to mitigate attacks and maintain privacy while reducing computational overhead. 
+Experimental results show LiFeChain enhances model performance and scalability within FLL frameworks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.06133v1</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2025-09-07T16:40:30Z</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2025-09-07T16:40:30Z</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>VehiclePassport: A GAIA-X-Aligned, Blockchain-Anchored   Privacy-Preserving, Zero-Knowledge Digital Passport for Smart Vehicles</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Modern vehicles accumulate fragmented lifecycle records across OEMs, owners, and service centers that are difficult to verify and prone to fraud. We propose VehiclePassport, a GAIA-X-aligned digital passport anchored on blockchain with zero-knowledge proofs (ZKPs) for privacy-preserving verification. VehiclePassport immutably commits to manufacturing, telemetry, and service events while enabling selective disclosure via short-lived JWTs and Groth16 proofs. Our open-source reference stack anchors hashes on Polygon zkEVM at &lt;$0.02 per event, validates proofs in &lt;10 ms, and scales to millions of vehicles. This architecture eliminates paper-based KYC, ensures GDPR-compliant traceability, and establishes a trustless foundation for insurance, resale, and regulatory applications in global mobility data markets.</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Pradyumna Kaushal</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>13 pages, 5 figures. Whitepaper submission; LaTeX source with
+  compiled .bbl. Includes architecture diagrams, tables, and code listings
+  (TypeScript &amp; Solidity)</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>cs.CR</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>cs.CR, cs.DC, cs.SE, cs.SY, eess.SY, C.2.4; K.6.5; D.4.6</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/abs/2509.06133v1</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>http://arxiv.org/pdf/2509.06133v1</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>VehiclePassport uses blockchain and zero-knowledge proofs for secure and verifiable vehicle data. 
+It immutably records vehicle history with privacy-preserving selective disclosures.
+The open-source system offers scalable, cost-effective traceability for mobility data applications.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
